--- a/test/pierre_concordance/concordance.xlsx
+++ b/test/pierre_concordance/concordance.xlsx
@@ -19,85 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29" count="29">
-  <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>MISSING_ENTRY_ref_21/MISSING_ENTRY_myvcf</t>
-  </si>
-  <si>
-    <t>MISSING_ENTRY_ref_21/MISSING_GT_myvcf</t>
-  </si>
-  <si>
-    <t>MISSING_ENTRY_ref_21/REF</t>
-  </si>
-  <si>
-    <t>MISSING_ENTRY_ref_21/ALT_1</t>
-  </si>
-  <si>
-    <t>MISSING_ENTRY_ref_21/ALT_2</t>
-  </si>
-  <si>
-    <t>MISSING_GT_ref_21/MISSING_ENTRY_myvcf</t>
-  </si>
-  <si>
-    <t>MISSING_GT_ref_21/MISSING_GT_myvcf</t>
-  </si>
-  <si>
-    <t>MISSING_GT_ref_21/REF</t>
-  </si>
-  <si>
-    <t>MISSING_GT_ref_21/ALT_1</t>
-  </si>
-  <si>
-    <t>MISSING_GT_ref_21/ALT_2</t>
-  </si>
-  <si>
-    <t>REF/MISSING_ENTRY_myvcf</t>
-  </si>
-  <si>
-    <t>REF/MISSING_GT_myvcf</t>
-  </si>
-  <si>
-    <t>REF/REF</t>
-  </si>
-  <si>
-    <t>REF/ALT_1</t>
-  </si>
-  <si>
-    <t>REF/ALT_2</t>
-  </si>
-  <si>
-    <t>ALT_1/MISSING_ENTRY_myvcf</t>
-  </si>
-  <si>
-    <t>ALT_1/MISSING_GT_myvcf</t>
-  </si>
-  <si>
-    <t>ALT_1/REF</t>
-  </si>
-  <si>
-    <t>ALT_1/ALT_1</t>
-  </si>
-  <si>
-    <t>ALT_1/ALT_2</t>
-  </si>
-  <si>
-    <t>ALT_2/MISSING_ENTRY_myvcf</t>
-  </si>
-  <si>
-    <t>ALT_2/MISSING_GT_myvcf</t>
-  </si>
-  <si>
-    <t>ALT_2/REF</t>
-  </si>
-  <si>
-    <t>ALT_2/ALT_1</t>
-  </si>
-  <si>
-    <t>ALT_2/ALT_2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6" count="6">
   <si>
     <t>MISSING myvcf</t>
   </si>
@@ -106,6 +28,15 @@
   </si>
   <si>
     <t>MATCH</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>MISSING myvcf</t>
   </si>
 </sst>
 </file>
@@ -118,10 +49,11 @@
       <i val="0"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
+      <sz val="10"/>
       <strike val="0"/>
     </font>
     <font>
-      <b val="0"/>
+      <b val="1"/>
       <i val="0"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
@@ -129,7 +61,7 @@
       <strike val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,13 +73,13 @@
         <fgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="0">
-      <left style="none">
-        <color rgb="FFC7C7C7"/>
-      </left>
-    </border>
+  <borders count="1">
     <border diagonalUp="0" diagonalDown="0">
       <left style="none">
         <color rgb="FFC7C7C7"/>
@@ -164,21 +96,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0"/>
+    <xf/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
+  <cellXfs count="6">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="90" indent="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -192,7 +127,7 @@
   <dimension ref="A1:IV15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -209,86 +144,86 @@
       </c>
     </row>
     <row r="2" spans="1:256">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="A2" s="2" t="str">
+        <v>sample</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>25</v>
+      <c r="E2" s="2" t="str">
+        <v>MISSING_ENTRY_ref_21/MISSING_ENTRY_myvcf</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <v>MISSING_ENTRY_ref_21/MISSING_GT_myvcf</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <v>MISSING_ENTRY_ref_21/REF</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <v>MISSING_ENTRY_ref_21/ALT_1</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <v>MISSING_ENTRY_ref_21/ALT_2</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <v>MISSING_GT_ref_21/MISSING_ENTRY_myvcf</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <v>MISSING_GT_ref_21/MISSING_GT_myvcf</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <v>MISSING_GT_ref_21/REF</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <v>MISSING_GT_ref_21/ALT_1</v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <v>MISSING_GT_ref_21/ALT_2</v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <v>REF/MISSING_ENTRY_myvcf</v>
+      </c>
+      <c r="P2" s="2" t="str">
+        <v>REF/MISSING_GT_myvcf</v>
+      </c>
+      <c r="Q2" s="2" t="str">
+        <v>REF/REF</v>
+      </c>
+      <c r="R2" s="2" t="str">
+        <v>REF/ALT_1</v>
+      </c>
+      <c r="S2" s="2" t="str">
+        <v>REF/ALT_2</v>
+      </c>
+      <c r="T2" s="2" t="str">
+        <v>ALT_1/MISSING_ENTRY_myvcf</v>
+      </c>
+      <c r="U2" s="2" t="str">
+        <v>ALT_1/MISSING_GT_myvcf</v>
+      </c>
+      <c r="V2" s="2" t="str">
+        <v>ALT_1/REF</v>
+      </c>
+      <c r="W2" s="2" t="str">
+        <v>ALT_1/ALT_1</v>
+      </c>
+      <c r="X2" s="2" t="str">
+        <v>ALT_1/ALT_2</v>
+      </c>
+      <c r="Y2" s="2" t="str">
+        <v>ALT_2/MISSING_ENTRY_myvcf</v>
+      </c>
+      <c r="Z2" s="2" t="str">
+        <v>ALT_2/MISSING_GT_myvcf</v>
+      </c>
+      <c r="AA2" s="2" t="str">
+        <v>ALT_2/REF</v>
+      </c>
+      <c r="AB2" s="2" t="str">
+        <v>ALT_2/ALT_1</v>
+      </c>
+      <c r="AC2" s="2" t="str">
+        <v>ALT_2/ALT_2</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -860,7 +795,7 @@
     </row>
     <row r="6" spans="1:256">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1130,7 +1065,7 @@
     </row>
     <row r="7" spans="1:256">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1400,7 +1335,7 @@
     </row>
     <row r="8" spans="1:256">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1734,42 +1669,45 @@
       <c r="IV8" s="3"/>
     </row>
     <row r="10" spans="1:256">
-      <c r="C10" s="4" t="str">
-        <v>Mask</v>
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:256">
-      <c r="A11" t="str">
+      <c r="A11" s="5" t="str">
         <v>All</v>
       </c>
-      <c r="C11">
+      <c r="B11" s="5">
         <f>SUM(E3:AC3)</f>
         <v>1147</v>
       </c>
     </row>
     <row r="12" spans="1:256">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12">
+      <c r="A12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5">
         <f>SUMPRODUCT(E$3:AC$3,E6:AC6)</f>
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:256">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13">
+      <c r="A13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5">
         <f>SUMPRODUCT(E$3:AC$3,E7:AC7)</f>
         <v>1126</v>
       </c>
     </row>
     <row r="14" spans="1:256">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14">
+      <c r="A14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5">
         <f>SUMPRODUCT(E$3:AC$3,E8:AC8)</f>
         <v>12</v>
       </c>

--- a/test/pierre_concordance/concordance.xlsx
+++ b/test/pierre_concordance/concordance.xlsx
@@ -30,20 +30,27 @@
     <t>MATCH</t>
   </si>
   <si>
-    <t>Mask</t>
+    <t>MISSING myvcf</t>
   </si>
   <si>
-    <t>Count</t>
+    <t>Entries in ref</t>
   </si>
   <si>
-    <t>MISSING myvcf</t>
+    <t>Entries in myvcf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <color rgb="FF000000"/>
+      <name val="Sans"/>
+      <strike val="0"/>
+    </font>
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -79,7 +86,15 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border diagonalDown="0">
+      <left style="none">
+        <color rgb="FFC7C7C7"/>
+      </left>
+      <right style="none">
+        <color rgb="FFC7C7C7"/>
+      </right>
+    </border>
     <border diagonalUp="0" diagonalDown="0">
       <left style="none">
         <color rgb="FFC7C7C7"/>
@@ -96,23 +111,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf/>
+    <xf fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+  <cellXfs count="7">
+    <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="90" indent="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="3" borderId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
   </cellXfs>
@@ -124,18 +142,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IV15"/>
+  <dimension ref="A1:IV17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="1" width="15.14195" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="1" width="18.28462" bestFit="1" customWidth="1"/>
     <col min="2" max="2" style="1" width="9.85655" bestFit="1" customWidth="1"/>
     <col min="3" max="30" style="1" width="9.142308"/>
-    <col min="31" max="256" style="1"/>
+    <col min="31" max="16384" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256">
@@ -1669,11 +1687,11 @@
       <c r="IV8" s="3"/>
     </row>
     <row r="10" spans="1:256">
-      <c r="A10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
+      <c r="A10" s="4" t="str">
+        <v>Mask</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <v>Count</v>
       </c>
     </row>
     <row r="11" spans="1:256">
@@ -1687,7 +1705,7 @@
     </row>
     <row r="12" spans="1:256">
       <c r="A12" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5">
         <f>SUMPRODUCT(E$3:AC$3,E6:AC6)</f>
@@ -1710,6 +1728,24 @@
       <c r="B14" s="5">
         <f>SUMPRODUCT(E$3:AC$3,E8:AC8)</f>
         <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:256">
+      <c r="A16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <f>B11-B13</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:256">
+      <c r="A17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <f>B11-B12</f>
+        <v>1138</v>
       </c>
     </row>
   </sheetData>
